--- a/docs/odh/obf-ActionStatement.xlsx
+++ b/docs/odh/obf-ActionStatement.xlsx
@@ -327,7 +327,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-Identifier-extension}
 </t>
   </si>
   <si>
